--- a/src/main/resources/templates/excel/po.xlsx
+++ b/src/main/resources/templates/excel/po.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rick/Space/Workspace/sharp-admin/src/main/resources/templates/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171DB6B8-E6E5-5E4A-8A48-1E716ED2BE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CFCD366-D3F7-DE4B-B9D9-B28205225F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="760" windowWidth="33120" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="760" windowWidth="33060" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20230726" sheetId="3" r:id="rId1"/>
@@ -660,6 +660,24 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -701,24 +719,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1183,7 +1183,7 @@
   <dimension ref="A1:AC30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -1213,30 +1213,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29.25" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="A3" s="41"/>
@@ -1254,17 +1254,17 @@
       <c r="I3" s="41"/>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -1321,12 +1321,12 @@
       <c r="I8" s="33"/>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
       <c r="E9" s="7"/>
       <c r="G9" s="1" t="s">
         <v>14</v>
@@ -1338,11 +1338,11 @@
         <v>15</v>
       </c>
       <c r="E10" s="9"/>
-      <c r="G10" s="59" t="s">
+      <c r="G10" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
     </row>
     <row r="11" spans="1:9" ht="24" customHeight="1">
       <c r="A11" s="10" t="s">
@@ -1373,7 +1373,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="40" customHeight="1">
+    <row r="12" spans="1:9" ht="61" customHeight="1">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
@@ -1385,45 +1385,45 @@
       <c r="I12" s="35"/>
     </row>
     <row r="13" spans="1:9" ht="21" customHeight="1">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
     </row>
     <row r="14" spans="1:9" ht="21" customHeight="1">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
     </row>
     <row r="15" spans="1:9" ht="21" customHeight="1">
       <c r="A15" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="58"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="64"/>
     </row>
     <row r="16" spans="1:9" ht="20.25" customHeight="1">
       <c r="A16" s="19" t="s">
@@ -1504,17 +1504,17 @@
       <c r="I21" s="38"/>
     </row>
     <row r="22" spans="1:29" ht="18.75" customHeight="1">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="56"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="62"/>
     </row>
     <row r="23" spans="1:29" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="A23" s="23" t="s">
@@ -1608,11 +1608,11 @@
       <c r="I27" s="39"/>
     </row>
     <row r="28" spans="1:29" s="4" customFormat="1" ht="29" customHeight="1">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="53"/>
       <c r="D28" s="28" t="s">
         <v>40</v>
       </c>
@@ -1678,11 +1678,6 @@
     <row r="30" spans="1:29" ht="42" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A9:D9"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:I13"/>
@@ -1690,6 +1685,11 @@
     <mergeCell ref="C14:I14"/>
     <mergeCell ref="A22:I22"/>
     <mergeCell ref="B15:I15"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/src/main/resources/templates/excel/po.xlsx
+++ b/src/main/resources/templates/excel/po.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rick/Space/Workspace/sharp-admin/src/main/resources/templates/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CFCD366-D3F7-DE4B-B9D9-B28205225F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E87ED6-4D89-384D-8DEF-0C960BA09F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="760" windowWidth="33060" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1160" yWindow="760" windowWidth="33400" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20230726" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'20230726'!$A$1:$I$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'20230726'!$A$1:$J$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,20 +44,6 @@
     <t xml:space="preserve"> PU YUAN Enterprise Group</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">                    Purchase Order          </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Supplier code：</t>
-    </r>
-  </si>
-  <si>
     <t>供方（Vendor）：常州广驰机械有限公司（宝工）</t>
   </si>
   <si>
@@ -133,9 +119,6 @@
   </si>
   <si>
     <t>含税总价（元）</t>
-  </si>
-  <si>
-    <t>到货日</t>
   </si>
   <si>
     <t>合计（小写）:</t>
@@ -246,13 +229,30 @@
     <t>备注：</t>
   </si>
   <si>
-    <t xml:space="preserve">保证螺牙（无滑牙、无毛刺）尺寸按图纸加工、 轴要求全部带注胶孔 </t>
-  </si>
-  <si>
     <t>PO NO: PY20230726-03</t>
   </si>
   <si>
     <t>订  购  单</t>
+  </si>
+  <si>
+    <t> 备注</t>
+  </si>
+  <si>
+    <t>到货日期</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    Purchase Order                   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Supplier code：</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -265,7 +265,7 @@
     <numFmt numFmtId="166" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;#,##0.00"/>
     <numFmt numFmtId="167" formatCode="[DBNum2][$RMB]General;[Red][DBNum2][$RMB]General"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -399,6 +399,12 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -540,7 +546,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -630,9 +636,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -663,6 +666,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -676,6 +685,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1180,10 +1192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC30"/>
+  <dimension ref="A1:AD30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -1194,186 +1206,197 @@
     <col min="4" max="4" width="26.33203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" style="5" customWidth="1"/>
     <col min="6" max="6" width="4.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="27" style="6" customWidth="1"/>
-    <col min="10" max="10" width="3.1640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="4.6640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="4.83203125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="6.6640625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="6.5" style="3" customWidth="1"/>
-    <col min="17" max="17" width="8.1640625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="3.83203125" style="3" customWidth="1"/>
-    <col min="19" max="21" width="2" style="3" customWidth="1"/>
-    <col min="22" max="25" width="3.83203125" style="3" customWidth="1"/>
-    <col min="26" max="29" width="6.1640625" style="3" customWidth="1"/>
-    <col min="30" max="16384" width="9" style="3"/>
+    <col min="7" max="7" width="12.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="27" style="6" customWidth="1"/>
+    <col min="11" max="11" width="3.1640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="4.6640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="4.83203125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="8.83203125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="6.5" style="3" customWidth="1"/>
+    <col min="18" max="18" width="8.1640625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="3.83203125" style="3" customWidth="1"/>
+    <col min="20" max="22" width="2" style="3" customWidth="1"/>
+    <col min="23" max="26" width="3.83203125" style="3" customWidth="1"/>
+    <col min="27" max="30" width="6.1640625" style="3" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29.25" customHeight="1">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:10" ht="29.25" customHeight="1">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-    </row>
-    <row r="2" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A2" s="48" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+    </row>
+    <row r="2" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-    </row>
-    <row r="3" spans="1:9" ht="21" customHeight="1">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="44" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+    </row>
+    <row r="3" spans="1:10" ht="21" customHeight="1">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="41"/>
+      <c r="J3" s="40"/>
+    </row>
+    <row r="4" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A4" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="41"/>
-    </row>
-    <row r="4" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A4" s="49" t="s">
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-    </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A5" s="1" t="s">
+      <c r="E5" s="7"/>
+      <c r="H5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="G5" s="1" t="s">
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="7"/>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="33"/>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="33"/>
-    </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="E7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="G7" s="8" t="s">
+      <c r="I7" s="8"/>
+      <c r="J7" s="33"/>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="33"/>
-    </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="H8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="G8" s="1" t="s">
+      <c r="I8" s="8"/>
+      <c r="J8" s="33"/>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A9" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="33"/>
-    </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A9" s="50" t="s">
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="7"/>
+      <c r="H9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="7"/>
-      <c r="G9" s="1" t="s">
+      <c r="J9" s="33"/>
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1" ht="44.25" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="33"/>
-    </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="44.25" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="E10" s="9"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="G10" s="45" t="s">
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+    </row>
+    <row r="11" spans="1:10" ht="24" customHeight="1">
+      <c r="A11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-    </row>
-    <row r="11" spans="1:9" ht="24" customHeight="1">
-      <c r="A11" s="10" t="s">
+      <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="E11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="F11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="G11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="H11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="61" customHeight="1">
+      <c r="I11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="61" customHeight="1">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
@@ -1382,52 +1405,54 @@
       <c r="F12" s="16"/>
       <c r="G12" s="17"/>
       <c r="H12" s="18"/>
-      <c r="I12" s="35"/>
-    </row>
-    <row r="13" spans="1:9" ht="21" customHeight="1">
-      <c r="A13" s="54" t="s">
+      <c r="I12" s="45"/>
+      <c r="J12" s="46"/>
+    </row>
+    <row r="13" spans="1:10" ht="21" customHeight="1">
+      <c r="A13" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="57"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+    </row>
+    <row r="14" spans="1:10" ht="21" customHeight="1">
+      <c r="A14" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="57"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+    </row>
+    <row r="15" spans="1:10" ht="21" customHeight="1">
+      <c r="A15" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66"/>
+    </row>
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A16" s="19" t="s">
         <v>26</v>
-      </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-    </row>
-    <row r="14" spans="1:9" ht="21" customHeight="1">
-      <c r="A14" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-    </row>
-    <row r="15" spans="1:9" ht="21" customHeight="1">
-      <c r="A15" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="64"/>
-    </row>
-    <row r="16" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A16" s="19" t="s">
-        <v>28</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="21"/>
@@ -1436,11 +1461,12 @@
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
-      <c r="I16" s="36"/>
-    </row>
-    <row r="17" spans="1:29" ht="18.75" customHeight="1">
+      <c r="I16" s="21"/>
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" spans="1:30" ht="18.75" customHeight="1">
       <c r="A17" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1449,11 +1475,12 @@
       <c r="F17" s="8"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="37"/>
-    </row>
-    <row r="18" spans="1:29" ht="18.75" customHeight="1">
+      <c r="I17" s="1"/>
+      <c r="J17" s="36"/>
+    </row>
+    <row r="18" spans="1:30" ht="18.75" customHeight="1">
       <c r="A18" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1462,11 +1489,12 @@
       <c r="F18" s="8"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="37"/>
-    </row>
-    <row r="19" spans="1:29" ht="18.75" customHeight="1">
+      <c r="I18" s="1"/>
+      <c r="J18" s="36"/>
+    </row>
+    <row r="19" spans="1:30" ht="18.75" customHeight="1">
       <c r="A19" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1475,11 +1503,12 @@
       <c r="F19" s="8"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="37"/>
-    </row>
-    <row r="20" spans="1:29" ht="18.75" customHeight="1">
+      <c r="I19" s="1"/>
+      <c r="J19" s="36"/>
+    </row>
+    <row r="20" spans="1:30" ht="18.75" customHeight="1">
       <c r="A20" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1488,11 +1517,12 @@
       <c r="F20" s="8"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="37"/>
-    </row>
-    <row r="21" spans="1:29" ht="18.75" customHeight="1">
+      <c r="I20" s="1"/>
+      <c r="J20" s="36"/>
+    </row>
+    <row r="21" spans="1:30" ht="18.75" customHeight="1">
       <c r="A21" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
@@ -1501,24 +1531,26 @@
       <c r="F21" s="25"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="38"/>
-    </row>
-    <row r="22" spans="1:29" ht="18.75" customHeight="1">
-      <c r="A22" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="62"/>
-    </row>
-    <row r="23" spans="1:29" s="4" customFormat="1" ht="18.75" customHeight="1">
+      <c r="I21" s="1"/>
+      <c r="J21" s="37"/>
+    </row>
+    <row r="22" spans="1:30" ht="18.75" customHeight="1">
+      <c r="A22" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="64"/>
+    </row>
+    <row r="23" spans="1:30" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="A23" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1527,8 +1559,8 @@
       <c r="F23" s="8"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="3"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="36"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -1547,18 +1579,18 @@
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
-    </row>
-    <row r="24" spans="1:29" s="4" customFormat="1" ht="20.25" customHeight="1">
+      <c r="AC23" s="3"/>
+    </row>
+    <row r="24" spans="1:30" s="4" customFormat="1" ht="20.25" customHeight="1">
       <c r="A24" s="23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="3"/>
+      <c r="J24" s="38"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -1578,52 +1610,56 @@
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
-    </row>
-    <row r="25" spans="1:29" ht="19.5" customHeight="1">
+      <c r="AD24" s="3"/>
+    </row>
+    <row r="25" spans="1:30" ht="19.5" customHeight="1">
       <c r="A25" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="39"/>
-    </row>
-    <row r="26" spans="1:29" ht="21" customHeight="1">
+      <c r="I25" s="4"/>
+      <c r="J25" s="38"/>
+    </row>
+    <row r="26" spans="1:30" ht="21" customHeight="1">
       <c r="A26" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="39"/>
-    </row>
-    <row r="27" spans="1:29" ht="11.25" customHeight="1">
+      <c r="I26" s="4"/>
+      <c r="J26" s="38"/>
+    </row>
+    <row r="27" spans="1:30" ht="11.25" customHeight="1">
       <c r="A27" s="23"/>
       <c r="E27" s="27"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="39"/>
-    </row>
-    <row r="28" spans="1:29" s="4" customFormat="1" ht="29" customHeight="1">
-      <c r="A28" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="52"/>
-      <c r="C28" s="53"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="38"/>
+    </row>
+    <row r="28" spans="1:30" s="4" customFormat="1" ht="29" customHeight="1">
+      <c r="A28" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
       <c r="D28" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E28" s="29"/>
       <c r="F28" s="30"/>
       <c r="G28" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H28" s="31"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="3"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="30"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -1643,8 +1679,9 @@
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
-    </row>
-    <row r="29" spans="1:29" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="AD28" s="3"/>
+    </row>
+    <row r="29" spans="1:30" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="32"/>
       <c r="B29" s="3"/>
       <c r="C29" s="1"/>
@@ -1653,8 +1690,8 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="6"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -1674,29 +1711,27 @@
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
-    </row>
-    <row r="30" spans="1:29" ht="42" customHeight="1"/>
+      <c r="AD29" s="3"/>
+    </row>
+    <row r="30" spans="1:30" ht="42" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C13:J13"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
     <mergeCell ref="A9:D9"/>
+    <mergeCell ref="H10:J10"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.39305555555555555" right="0.18" top="0.31" bottom="0" header="0.28000000000000003" footer="0.35"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" verticalDpi="360"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/templates/excel/po.xlsx
+++ b/src/main/resources/templates/excel/po.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rick/Space/Workspace/sharp-admin/src/main/resources/templates/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E87ED6-4D89-384D-8DEF-0C960BA09F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67F677F-015B-7543-8C95-49D69D279520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="760" windowWidth="33400" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="760" windowWidth="33060" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20230726" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t xml:space="preserve"> 普源电机制造（苏州）有限公司</t>
   </si>
@@ -253,6 +253,9 @@
       </rPr>
       <t>Supplier code：</t>
     </r>
+  </si>
+  <si>
+    <t>11）供方送货时，请在货单上注明我公司采购单号，如不注明，不予收货。</t>
   </si>
 </sst>
 </file>
@@ -672,6 +675,48 @@
     <xf numFmtId="14" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -689,48 +734,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1195,7 +1198,7 @@
   <dimension ref="A1:AD30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -1226,32 +1229,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
       <c r="A3" s="40"/>
@@ -1270,18 +1273,18 @@
       <c r="J3" s="40"/>
     </row>
     <row r="4" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -1340,12 +1343,12 @@
       <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
       <c r="E9" s="7"/>
       <c r="H9" s="1" t="s">
         <v>13</v>
@@ -1358,11 +1361,11 @@
       </c>
       <c r="E10" s="9"/>
       <c r="G10" s="44"/>
-      <c r="H10" s="52" t="s">
+      <c r="H10" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1">
       <c r="A11" s="10" t="s">
@@ -1409,46 +1412,46 @@
       <c r="J12" s="46"/>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1">
       <c r="A15" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="66"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="60"/>
     </row>
     <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="19" t="s">
@@ -1535,18 +1538,18 @@
       <c r="J21" s="37"/>
     </row>
     <row r="22" spans="1:30" ht="18.75" customHeight="1">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="64"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="58"/>
     </row>
     <row r="23" spans="1:30" s="4" customFormat="1" ht="18.75" customHeight="1">
       <c r="A23" s="23" t="s">
@@ -1623,7 +1626,7 @@
       <c r="I25" s="4"/>
       <c r="J25" s="38"/>
     </row>
-    <row r="26" spans="1:30" ht="21" customHeight="1">
+    <row r="26" spans="1:30" ht="14" customHeight="1">
       <c r="A26" s="23" t="s">
         <v>36</v>
       </c>
@@ -1635,7 +1638,9 @@
       <c r="J26" s="38"/>
     </row>
     <row r="27" spans="1:30" ht="11.25" customHeight="1">
-      <c r="A27" s="23"/>
+      <c r="A27" s="23" t="s">
+        <v>46</v>
+      </c>
       <c r="E27" s="27"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -1644,11 +1649,11 @@
       <c r="J27" s="38"/>
     </row>
     <row r="28" spans="1:30" s="4" customFormat="1" ht="29" customHeight="1">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="28" t="s">
         <v>38</v>
       </c>
@@ -1716,6 +1721,11 @@
     <row r="30" spans="1:30" ht="42" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="H10:J10"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:J13"/>
@@ -1723,11 +1733,6 @@
     <mergeCell ref="C14:J14"/>
     <mergeCell ref="A22:J22"/>
     <mergeCell ref="B15:J15"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="H10:J10"/>
   </mergeCells>
   <pageMargins left="0.39305555555555555" right="0.18" top="0.31" bottom="0" header="0.28000000000000003" footer="0.35"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" verticalDpi="360"/>

--- a/src/main/resources/templates/excel/po.xlsx
+++ b/src/main/resources/templates/excel/po.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rick/Space/Workspace/sharp-admin/src/main/resources/templates/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67F677F-015B-7543-8C95-49D69D279520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895FBD12-61AB-B243-BA9A-36177118FE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="760" windowWidth="33060" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1640" yWindow="760" windowWidth="32920" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20230726" sheetId="3" r:id="rId1"/>
@@ -549,7 +549,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -675,6 +675,7 @@
     <xf numFmtId="14" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1198,7 +1199,7 @@
   <dimension ref="A1:AD30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -1211,7 +1212,7 @@
     <col min="6" max="6" width="4.6640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="3" customWidth="1"/>
     <col min="8" max="8" width="12.1640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11" style="3" customWidth="1"/>
     <col min="10" max="10" width="27" style="6" customWidth="1"/>
     <col min="11" max="11" width="3.1640625" style="3" customWidth="1"/>
     <col min="12" max="12" width="4.6640625" style="3" customWidth="1"/>
@@ -1229,32 +1230,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
       <c r="A3" s="40"/>
@@ -1273,18 +1274,18 @@
       <c r="J3" s="40"/>
     </row>
     <row r="4" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -1343,12 +1344,12 @@
       <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
       <c r="E9" s="7"/>
       <c r="H9" s="1" t="s">
         <v>13</v>
@@ -1361,11 +1362,11 @@
       </c>
       <c r="E10" s="9"/>
       <c r="G10" s="44"/>
-      <c r="H10" s="66" t="s">
+      <c r="H10" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1">
       <c r="A11" s="10" t="s">
@@ -1412,46 +1413,46 @@
       <c r="J12" s="46"/>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1">
       <c r="A15" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="61"/>
     </row>
     <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="19" t="s">
@@ -1467,7 +1468,7 @@
       <c r="I16" s="21"/>
       <c r="J16" s="35"/>
     </row>
-    <row r="17" spans="1:30" ht="18.75" customHeight="1">
+    <row r="17" spans="1:30" ht="20.25" customHeight="1">
       <c r="A17" s="23" t="s">
         <v>27</v>
       </c>
@@ -1481,7 +1482,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="36"/>
     </row>
-    <row r="18" spans="1:30" ht="18.75" customHeight="1">
+    <row r="18" spans="1:30" ht="20.25" customHeight="1">
       <c r="A18" s="23" t="s">
         <v>28</v>
       </c>
@@ -1495,7 +1496,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="36"/>
     </row>
-    <row r="19" spans="1:30" ht="18.75" customHeight="1">
+    <row r="19" spans="1:30" ht="20.25" customHeight="1">
       <c r="A19" s="23" t="s">
         <v>29</v>
       </c>
@@ -1509,7 +1510,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="36"/>
     </row>
-    <row r="20" spans="1:30" ht="18.75" customHeight="1">
+    <row r="20" spans="1:30" ht="20.25" customHeight="1">
       <c r="A20" s="23" t="s">
         <v>30</v>
       </c>
@@ -1523,7 +1524,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="36"/>
     </row>
-    <row r="21" spans="1:30" ht="18.75" customHeight="1">
+    <row r="21" spans="1:30" ht="20.25" customHeight="1">
       <c r="A21" s="23" t="s">
         <v>31</v>
       </c>
@@ -1537,21 +1538,21 @@
       <c r="I21" s="1"/>
       <c r="J21" s="37"/>
     </row>
-    <row r="22" spans="1:30" ht="18.75" customHeight="1">
-      <c r="A22" s="56" t="s">
+    <row r="22" spans="1:30" ht="20.25" customHeight="1">
+      <c r="A22" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="58"/>
-    </row>
-    <row r="23" spans="1:30" s="4" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="59"/>
+    </row>
+    <row r="23" spans="1:30" s="4" customFormat="1" ht="20.25" customHeight="1">
       <c r="A23" s="23" t="s">
         <v>33</v>
       </c>
@@ -1615,7 +1616,7 @@
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
     </row>
-    <row r="25" spans="1:30" ht="19.5" customHeight="1">
+    <row r="25" spans="1:30" ht="20.25" customHeight="1">
       <c r="A25" s="23" t="s">
         <v>35</v>
       </c>
@@ -1626,7 +1627,7 @@
       <c r="I25" s="4"/>
       <c r="J25" s="38"/>
     </row>
-    <row r="26" spans="1:30" ht="14" customHeight="1">
+    <row r="26" spans="1:30" ht="20.25" customHeight="1">
       <c r="A26" s="23" t="s">
         <v>36</v>
       </c>
@@ -1637,8 +1638,8 @@
       <c r="I26" s="4"/>
       <c r="J26" s="38"/>
     </row>
-    <row r="27" spans="1:30" ht="11.25" customHeight="1">
-      <c r="A27" s="23" t="s">
+    <row r="27" spans="1:30" ht="20.25" customHeight="1">
+      <c r="A27" s="47" t="s">
         <v>46</v>
       </c>
       <c r="E27" s="27"/>
@@ -1649,11 +1650,11 @@
       <c r="J27" s="38"/>
     </row>
     <row r="28" spans="1:30" s="4" customFormat="1" ht="29" customHeight="1">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="49"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
       <c r="D28" s="28" t="s">
         <v>38</v>
       </c>

--- a/src/main/resources/templates/excel/po.xlsx
+++ b/src/main/resources/templates/excel/po.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rick/Space/Workspace/sharp-admin/src/main/resources/templates/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895FBD12-61AB-B243-BA9A-36177118FE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C96B3AA-0AB2-8540-9782-142B4A6A0784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="760" windowWidth="32920" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1700" yWindow="760" windowWidth="32860" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20230726" sheetId="3" r:id="rId1"/>
@@ -173,9 +173,6 @@
     <t>5）检验判NG之物料异常，厂商应于2日之内回复，并更换合乎规定之物料，如不换回本公司将进行扣款处理或退货处理。</t>
   </si>
   <si>
-    <t>6）保固期：12个月。</t>
-  </si>
-  <si>
     <t>7）供方在出货后两个月内，请款单据（对账单、送货单）不齐全视同贵司付款顺延，将不再另行通知。</t>
   </si>
   <si>
@@ -256,6 +253,9 @@
   </si>
   <si>
     <t>11）供方送货时，请在货单上注明我公司采购单号，如不注明，不予收货。</t>
+  </si>
+  <si>
+    <t>6）保固期：24个月。</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1199,7 @@
   <dimension ref="A1:AD30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -1212,7 +1212,7 @@
     <col min="6" max="6" width="4.6640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="3" customWidth="1"/>
     <col min="8" max="8" width="12.1640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="3" customWidth="1"/>
     <col min="10" max="10" width="27" style="6" customWidth="1"/>
     <col min="11" max="11" width="3.1640625" style="3" customWidth="1"/>
     <col min="12" max="12" width="4.6640625" style="3" customWidth="1"/>
@@ -1262,20 +1262,20 @@
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
       <c r="D3" s="43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="40"/>
       <c r="F3" s="40"/>
       <c r="G3" s="42"/>
       <c r="H3" s="41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3" s="41"/>
       <c r="J3" s="40"/>
     </row>
     <row r="4" spans="1:10" ht="17.25" customHeight="1">
       <c r="A4" s="65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="65"/>
       <c r="C4" s="65"/>
@@ -1394,10 +1394,10 @@
         <v>23</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="61" customHeight="1">
@@ -1442,7 +1442,7 @@
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1">
       <c r="A15" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="60"/>
       <c r="C15" s="60"/>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="22" spans="1:30" ht="20.25" customHeight="1">
       <c r="A22" s="57" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B22" s="58"/>
       <c r="C22" s="58"/>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="23" spans="1:30" s="4" customFormat="1" ht="20.25" customHeight="1">
       <c r="A23" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="24" spans="1:30" s="4" customFormat="1" ht="20.25" customHeight="1">
       <c r="A24" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="25" spans="1:30" ht="20.25" customHeight="1">
       <c r="A25" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="26" spans="1:30" ht="20.25" customHeight="1">
       <c r="A26" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
@@ -1640,7 +1640,7 @@
     </row>
     <row r="27" spans="1:30" ht="20.25" customHeight="1">
       <c r="A27" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E27" s="27"/>
       <c r="F27" s="4"/>
@@ -1651,17 +1651,17 @@
     </row>
     <row r="28" spans="1:30" s="4" customFormat="1" ht="29" customHeight="1">
       <c r="A28" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="49"/>
       <c r="C28" s="50"/>
       <c r="D28" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E28" s="29"/>
       <c r="F28" s="30"/>
       <c r="G28" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H28" s="31"/>
       <c r="I28" s="31"/>

--- a/src/main/resources/templates/excel/po.xlsx
+++ b/src/main/resources/templates/excel/po.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rick/Space/Workspace/sharp-admin/src/main/resources/templates/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C96B3AA-0AB2-8540-9782-142B4A6A0784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611871F3-D7AC-E94B-A07A-18E4784470F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="760" windowWidth="32860" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20230726" sheetId="3" r:id="rId1"/>
@@ -432,7 +432,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -541,6 +541,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -549,7 +580,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -620,19 +651,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="12" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -676,14 +694,23 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -718,24 +745,34 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1199,7 +1236,7 @@
   <dimension ref="A1:AD30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -1230,62 +1267,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="43" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="41" t="s">
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="40"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="35"/>
     </row>
     <row r="4" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -1312,7 +1349,7 @@
         <v>6</v>
       </c>
       <c r="I6" s="7"/>
-      <c r="J6" s="33"/>
+      <c r="J6" s="28"/>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -1327,7 +1364,7 @@
         <v>9</v>
       </c>
       <c r="I7" s="8"/>
-      <c r="J7" s="33"/>
+      <c r="J7" s="28"/>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
@@ -1341,32 +1378,32 @@
         <v>11</v>
       </c>
       <c r="I8" s="8"/>
-      <c r="J8" s="33"/>
+      <c r="J8" s="28"/>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
       <c r="E9" s="7"/>
       <c r="H9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="33"/>
+      <c r="J9" s="28"/>
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" ht="44.25" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="9"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="67" t="s">
+      <c r="G10" s="39"/>
+      <c r="H10" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1">
       <c r="A11" s="10" t="s">
@@ -1396,7 +1433,7 @@
       <c r="I11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="34" t="s">
+      <c r="J11" s="29" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1409,50 +1446,50 @@
       <c r="F12" s="16"/>
       <c r="G12" s="17"/>
       <c r="H12" s="18"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="46"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="41"/>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="61"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="59"/>
     </row>
     <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="19" t="s">
@@ -1466,7 +1503,7 @@
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
-      <c r="J16" s="35"/>
+      <c r="J16" s="30"/>
     </row>
     <row r="17" spans="1:30" ht="20.25" customHeight="1">
       <c r="A17" s="23" t="s">
@@ -1480,7 +1517,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="36"/>
+      <c r="J17" s="31"/>
     </row>
     <row r="18" spans="1:30" ht="20.25" customHeight="1">
       <c r="A18" s="23" t="s">
@@ -1494,7 +1531,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="36"/>
+      <c r="J18" s="31"/>
     </row>
     <row r="19" spans="1:30" ht="20.25" customHeight="1">
       <c r="A19" s="23" t="s">
@@ -1508,7 +1545,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="36"/>
+      <c r="J19" s="31"/>
     </row>
     <row r="20" spans="1:30" ht="20.25" customHeight="1">
       <c r="A20" s="23" t="s">
@@ -1522,7 +1559,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="36"/>
+      <c r="J20" s="31"/>
     </row>
     <row r="21" spans="1:30" ht="20.25" customHeight="1">
       <c r="A21" s="23" t="s">
@@ -1536,21 +1573,21 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="37"/>
+      <c r="J21" s="32"/>
     </row>
     <row r="22" spans="1:30" ht="20.25" customHeight="1">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="59"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="57"/>
     </row>
     <row r="23" spans="1:30" s="4" customFormat="1" ht="20.25" customHeight="1">
       <c r="A23" s="23" t="s">
@@ -1564,7 +1601,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="36"/>
+      <c r="J23" s="31"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -1594,7 +1631,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
-      <c r="J24" s="38"/>
+      <c r="J24" s="33"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -1625,7 +1662,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="38"/>
+      <c r="J25" s="33"/>
     </row>
     <row r="26" spans="1:30" ht="20.25" customHeight="1">
       <c r="A26" s="23" t="s">
@@ -1636,10 +1673,10 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="38"/>
+      <c r="J26" s="33"/>
     </row>
     <row r="27" spans="1:30" ht="20.25" customHeight="1">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="42" t="s">
         <v>45</v>
       </c>
       <c r="E27" s="27"/>
@@ -1647,25 +1684,25 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="38"/>
+      <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:30" s="4" customFormat="1" ht="29" customHeight="1">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="28" t="s">
+      <c r="B28" s="69"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="28" t="s">
+      <c r="E28" s="72"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="30"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="68"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -1688,16 +1725,16 @@
       <c r="AD28" s="3"/>
     </row>
     <row r="29" spans="1:30" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="32"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="6"/>
+      <c r="A29" s="60"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="66"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -1722,11 +1759,6 @@
     <row r="30" spans="1:30" ht="42" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="H10:J10"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:J13"/>
@@ -1734,6 +1766,11 @@
     <mergeCell ref="C14:J14"/>
     <mergeCell ref="A22:J22"/>
     <mergeCell ref="B15:J15"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="H10:J10"/>
   </mergeCells>
   <pageMargins left="0.39305555555555555" right="0.18" top="0.31" bottom="0" header="0.28000000000000003" footer="0.35"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" verticalDpi="360"/>

--- a/src/main/resources/templates/excel/po.xlsx
+++ b/src/main/resources/templates/excel/po.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rick/Space/Workspace/sharp-admin/src/main/resources/templates/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611871F3-D7AC-E94B-A07A-18E4784470F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021A3784-330E-FB47-9C4E-FFA4D3E3B51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1620" yWindow="760" windowWidth="32940" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20230726" sheetId="3" r:id="rId1"/>
@@ -694,57 +694,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -762,17 +711,68 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1236,7 +1236,7 @@
   <dimension ref="A1:AD30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -1267,32 +1267,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
       <c r="A3" s="35"/>
@@ -1311,18 +1311,18 @@
       <c r="J3" s="35"/>
     </row>
     <row r="4" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -1381,12 +1381,12 @@
       <c r="J8" s="28"/>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
       <c r="E9" s="7"/>
       <c r="H9" s="1" t="s">
         <v>13</v>
@@ -1399,11 +1399,11 @@
       </c>
       <c r="E10" s="9"/>
       <c r="G10" s="39"/>
-      <c r="H10" s="48" t="s">
+      <c r="H10" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1">
       <c r="A11" s="10" t="s">
@@ -1450,46 +1450,46 @@
       <c r="J12" s="41"/>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1">
       <c r="A15" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="59"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="73"/>
     </row>
     <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="19" t="s">
@@ -1576,18 +1576,18 @@
       <c r="J21" s="32"/>
     </row>
     <row r="22" spans="1:30" ht="20.25" customHeight="1">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="57"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="71"/>
     </row>
     <row r="23" spans="1:30" s="4" customFormat="1" ht="20.25" customHeight="1">
       <c r="A23" s="23" t="s">
@@ -1687,22 +1687,22 @@
       <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:30" s="4" customFormat="1" ht="29" customHeight="1">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="71" t="s">
+      <c r="B28" s="61"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="72"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="71" t="s">
+      <c r="E28" s="53"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="71"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="68"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="51"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -1725,16 +1725,16 @@
       <c r="AD28" s="3"/>
     </row>
     <row r="29" spans="1:30" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="60"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="66"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="49"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>

--- a/src/main/resources/templates/excel/po.xlsx
+++ b/src/main/resources/templates/excel/po.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rick/Space/Workspace/sharp-admin/src/main/resources/templates/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021A3784-330E-FB47-9C4E-FFA4D3E3B51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105943DB-3708-E344-8F45-BD7CA3929CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1620" yWindow="760" windowWidth="32940" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>序号</t>
-  </si>
-  <si>
-    <t>资材编号</t>
   </si>
   <si>
     <t>品 名</t>
@@ -256,6 +253,9 @@
   </si>
   <si>
     <t>6）保固期：24个月。</t>
+  </si>
+  <si>
+    <t>物料编号</t>
   </si>
 </sst>
 </file>
@@ -716,6 +716,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -733,45 +772,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1236,7 +1236,7 @@
   <dimension ref="A1:AD30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -1267,62 +1267,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
       <c r="D3" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="35"/>
       <c r="F3" s="35"/>
       <c r="G3" s="37"/>
       <c r="H3" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="36"/>
       <c r="J3" s="35"/>
     </row>
     <row r="4" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A4" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
+      <c r="A4" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -1381,12 +1381,12 @@
       <c r="J8" s="28"/>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
       <c r="E9" s="7"/>
       <c r="H9" s="1" t="s">
         <v>13</v>
@@ -1399,42 +1399,42 @@
       </c>
       <c r="E10" s="9"/>
       <c r="G10" s="39"/>
-      <c r="H10" s="60" t="s">
+      <c r="H10" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="E11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="F11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="G11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="H11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>23</v>
-      </c>
       <c r="I11" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J11" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="61" customHeight="1">
@@ -1450,50 +1450,50 @@
       <c r="J12" s="41"/>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+    </row>
+    <row r="14" spans="1:10" ht="21" customHeight="1">
+      <c r="A14" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-    </row>
-    <row r="14" spans="1:10" ht="21" customHeight="1">
-      <c r="A14" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1">
       <c r="A15" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="73"/>
+        <v>38</v>
+      </c>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="67"/>
     </row>
     <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="21"/>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="17" spans="1:30" ht="20.25" customHeight="1">
       <c r="A17" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="18" spans="1:30" ht="20.25" customHeight="1">
       <c r="A18" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="19" spans="1:30" ht="20.25" customHeight="1">
       <c r="A19" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="20" spans="1:30" ht="20.25" customHeight="1">
       <c r="A20" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="21" spans="1:30" ht="20.25" customHeight="1">
       <c r="A21" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
@@ -1576,22 +1576,22 @@
       <c r="J21" s="32"/>
     </row>
     <row r="22" spans="1:30" ht="20.25" customHeight="1">
-      <c r="A22" s="69" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="71"/>
+      <c r="A22" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="65"/>
     </row>
     <row r="23" spans="1:30" s="4" customFormat="1" ht="20.25" customHeight="1">
       <c r="A23" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="24" spans="1:30" s="4" customFormat="1" ht="20.25" customHeight="1">
       <c r="A24" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="25" spans="1:30" ht="20.25" customHeight="1">
       <c r="A25" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="26" spans="1:30" ht="20.25" customHeight="1">
       <c r="A26" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="27" spans="1:30" ht="20.25" customHeight="1">
       <c r="A27" s="42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E27" s="27"/>
       <c r="F27" s="4"/>
@@ -1687,18 +1687,18 @@
       <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:30" s="4" customFormat="1" ht="29" customHeight="1">
-      <c r="A28" s="61" t="s">
+      <c r="A28" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="52" t="s">
         <v>36</v>
-      </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="52" t="s">
-        <v>37</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
       <c r="G28" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H28" s="52"/>
       <c r="I28" s="50"/>
@@ -1759,6 +1759,11 @@
     <row r="30" spans="1:30" ht="42" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="H10:J10"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:J13"/>
@@ -1766,11 +1771,6 @@
     <mergeCell ref="C14:J14"/>
     <mergeCell ref="A22:J22"/>
     <mergeCell ref="B15:J15"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="H10:J10"/>
   </mergeCells>
   <pageMargins left="0.39305555555555555" right="0.18" top="0.31" bottom="0" header="0.28000000000000003" footer="0.35"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" verticalDpi="360"/>

--- a/src/main/resources/templates/excel/po.xlsx
+++ b/src/main/resources/templates/excel/po.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rick/Space/Workspace/sharp-admin/src/main/resources/templates/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105943DB-3708-E344-8F45-BD7CA3929CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C9BFC7-6406-F243-B2B3-8A82AB983904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1620" yWindow="760" windowWidth="32940" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -268,7 +268,7 @@
     <numFmt numFmtId="166" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;#,##0.00"/>
     <numFmt numFmtId="167" formatCode="[DBNum2][$RMB]General;[Red][DBNum2][$RMB]General"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -408,6 +408,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -690,9 +696,6 @@
     <xf numFmtId="165" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -716,6 +719,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -755,22 +776,7 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1236,7 +1242,7 @@
   <dimension ref="A1:AD30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -1267,32 +1273,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
       <c r="A3" s="35"/>
@@ -1311,18 +1317,18 @@
       <c r="J3" s="35"/>
     </row>
     <row r="4" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -1381,12 +1387,12 @@
       <c r="J8" s="28"/>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
       <c r="E9" s="7"/>
       <c r="H9" s="1" t="s">
         <v>13</v>
@@ -1399,11 +1405,11 @@
       </c>
       <c r="E10" s="9"/>
       <c r="G10" s="39"/>
-      <c r="H10" s="73" t="s">
+      <c r="H10" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1">
       <c r="A11" s="10" t="s">
@@ -1447,49 +1453,49 @@
       <c r="G12" s="17"/>
       <c r="H12" s="18"/>
       <c r="I12" s="40"/>
-      <c r="J12" s="41"/>
+      <c r="J12" s="73"/>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1">
       <c r="A15" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="67"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="72"/>
     </row>
     <row r="16" spans="1:10" ht="20.25" customHeight="1">
       <c r="A16" s="19" t="s">
@@ -1576,18 +1582,18 @@
       <c r="J21" s="32"/>
     </row>
     <row r="22" spans="1:30" ht="20.25" customHeight="1">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="65"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="70"/>
     </row>
     <row r="23" spans="1:30" s="4" customFormat="1" ht="20.25" customHeight="1">
       <c r="A23" s="23" t="s">
@@ -1676,7 +1682,7 @@
       <c r="J26" s="33"/>
     </row>
     <row r="27" spans="1:30" ht="20.25" customHeight="1">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="41" t="s">
         <v>44</v>
       </c>
       <c r="E27" s="27"/>
@@ -1687,22 +1693,22 @@
       <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:30" s="4" customFormat="1" ht="29" customHeight="1">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="52" t="s">
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="53"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="52" t="s">
+      <c r="E28" s="52"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="H28" s="52"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="50"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -1725,16 +1731,16 @@
       <c r="AD28" s="3"/>
     </row>
     <row r="29" spans="1:30" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="43"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="49"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="48"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -1759,11 +1765,6 @@
     <row r="30" spans="1:30" ht="42" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="H10:J10"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:J13"/>
@@ -1771,6 +1772,11 @@
     <mergeCell ref="C14:J14"/>
     <mergeCell ref="A22:J22"/>
     <mergeCell ref="B15:J15"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="H10:J10"/>
   </mergeCells>
   <pageMargins left="0.39305555555555555" right="0.18" top="0.31" bottom="0" header="0.28000000000000003" footer="0.35"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" verticalDpi="360"/>
